--- a/data-raw/Smartphone_usage_and_Intenational_Tourist_Behavior.xlsx
+++ b/data-raw/Smartphone_usage_and_Intenational_Tourist_Behavior.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\R\Project DS\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFCECA1-73D4-4FD8-BF89-48056E303C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E8B540-C366-4F47-8791-9580A18A4719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -708,7 +708,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -723,6 +723,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -732,7 +738,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -740,15 +746,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1068,8 +1092,8 @@
   </sheetPr>
   <dimension ref="A1:BG304"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="56" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" topLeftCell="A248" zoomScale="56" workbookViewId="0">
+      <selection activeCell="T281" sqref="T281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1111,7 +1135,7 @@
     <col min="37" max="58" width="5.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1221,7 +1245,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:59" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>29</v>
       </c>
@@ -1279,7 +1303,7 @@
       <c r="T2" s="1">
         <v>0</v>
       </c>
-      <c r="U2" s="1">
+      <c r="U2" s="4">
         <v>12</v>
       </c>
       <c r="V2" s="1" t="s">
@@ -1351,7 +1375,7 @@
       <c r="BF2" s="1"/>
       <c r="BG2" s="1"/>
     </row>
-    <row r="3" spans="1:59" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>28</v>
       </c>
@@ -1412,7 +1436,7 @@
       <c r="T3" s="1">
         <v>1</v>
       </c>
-      <c r="U3" s="1">
+      <c r="U3" s="4">
         <v>10</v>
       </c>
       <c r="V3" s="1" t="s">
@@ -1461,7 +1485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:59" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:59" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45</v>
       </c>
@@ -1519,7 +1543,7 @@
       <c r="T4" s="1">
         <v>1</v>
       </c>
-      <c r="U4" s="1">
+      <c r="U4" s="4">
         <v>24</v>
       </c>
       <c r="V4" s="1" t="s">
@@ -1568,7 +1592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:59" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:59" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>30</v>
       </c>
@@ -1626,7 +1650,7 @@
       <c r="T5" s="1">
         <v>0</v>
       </c>
-      <c r="U5" s="1">
+      <c r="U5" s="4">
         <v>8</v>
       </c>
       <c r="V5" s="1" t="s">
@@ -1675,7 +1699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:59" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:59" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>36</v>
       </c>
@@ -1733,7 +1757,7 @@
       <c r="T6" s="1">
         <v>0</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U6" s="4">
         <v>2</v>
       </c>
       <c r="V6" s="1" t="s">
@@ -1782,7 +1806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:59" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:59" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>50</v>
       </c>
@@ -1840,7 +1864,7 @@
       <c r="T7" s="1">
         <v>0</v>
       </c>
-      <c r="U7" s="1">
+      <c r="U7" s="4">
         <v>8</v>
       </c>
       <c r="V7" s="1" t="s">
@@ -1889,7 +1913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:59" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:59" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>31</v>
       </c>
@@ -1947,7 +1971,7 @@
       <c r="T8" s="1">
         <v>1</v>
       </c>
-      <c r="U8" s="1">
+      <c r="U8" s="4">
         <v>12</v>
       </c>
       <c r="V8" s="1" t="s">
@@ -1996,7 +2020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:59" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:59" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>38</v>
       </c>
@@ -2054,7 +2078,7 @@
       <c r="T9" s="1">
         <v>1</v>
       </c>
-      <c r="U9" s="1">
+      <c r="U9" s="4">
         <v>10</v>
       </c>
       <c r="V9" s="1" t="s">
@@ -2103,7 +2127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:59" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:59" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>30</v>
       </c>
@@ -2161,7 +2185,7 @@
       <c r="T10" s="1">
         <v>0</v>
       </c>
-      <c r="U10" s="1">
+      <c r="U10" s="4">
         <v>6</v>
       </c>
       <c r="V10" s="1" t="s">
@@ -2210,7 +2234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:59" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:59" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>29</v>
       </c>
@@ -2268,7 +2292,7 @@
       <c r="T11" s="1">
         <v>0</v>
       </c>
-      <c r="U11" s="1">
+      <c r="U11" s="4">
         <v>10</v>
       </c>
       <c r="V11" s="1" t="s">
@@ -2317,7 +2341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:59" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:59" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>29</v>
       </c>
@@ -2375,6 +2399,9 @@
       <c r="T12" s="1">
         <v>0</v>
       </c>
+      <c r="U12" s="4">
+        <v>11</v>
+      </c>
       <c r="W12" s="3">
         <v>0</v>
       </c>
@@ -2418,7 +2445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:59" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:59" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>35</v>
       </c>
@@ -2476,7 +2503,7 @@
       <c r="T13" s="1">
         <v>0</v>
       </c>
-      <c r="U13" s="1">
+      <c r="U13" s="4">
         <v>3</v>
       </c>
       <c r="V13" s="1" t="s">
@@ -2525,7 +2552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:59" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:59" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>26</v>
       </c>
@@ -2583,7 +2610,7 @@
       <c r="T14" s="1">
         <v>0</v>
       </c>
-      <c r="U14" s="1">
+      <c r="U14" s="4">
         <v>2</v>
       </c>
       <c r="W14" s="1">
@@ -2629,7 +2656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:59" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:59" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>29</v>
       </c>
@@ -2690,7 +2717,7 @@
       <c r="T15" s="1">
         <v>0</v>
       </c>
-      <c r="U15" s="1">
+      <c r="U15" s="4">
         <v>2</v>
       </c>
       <c r="V15" s="1" t="s">
@@ -2739,7 +2766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:59" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:59" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45</v>
       </c>
@@ -2797,7 +2824,7 @@
       <c r="T16" s="1">
         <v>0</v>
       </c>
-      <c r="U16" s="1">
+      <c r="U16" s="4">
         <v>2</v>
       </c>
       <c r="W16" s="1">
@@ -2843,7 +2870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>39</v>
       </c>
@@ -2901,7 +2928,7 @@
       <c r="T17" s="1">
         <v>0</v>
       </c>
-      <c r="U17" s="1">
+      <c r="U17" s="4">
         <v>8</v>
       </c>
       <c r="V17" s="1" t="s">
@@ -2950,7 +2977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>33</v>
       </c>
@@ -3008,7 +3035,7 @@
       <c r="T18" s="1">
         <v>0</v>
       </c>
-      <c r="U18" s="1">
+      <c r="U18" s="4">
         <v>4</v>
       </c>
       <c r="V18" s="1" t="s">
@@ -3057,7 +3084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>34</v>
       </c>
@@ -3115,7 +3142,7 @@
       <c r="T19" s="1">
         <v>0</v>
       </c>
-      <c r="U19" s="1">
+      <c r="U19" s="4">
         <v>2</v>
       </c>
       <c r="V19" s="1" t="s">
@@ -3164,7 +3191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>32</v>
       </c>
@@ -3222,7 +3249,7 @@
       <c r="T20" s="1">
         <v>0</v>
       </c>
-      <c r="U20" s="1">
+      <c r="U20" s="4">
         <v>6</v>
       </c>
       <c r="V20" s="1" t="s">
@@ -3271,7 +3298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>30</v>
       </c>
@@ -3329,7 +3356,7 @@
       <c r="T21" s="1">
         <v>0</v>
       </c>
-      <c r="U21" s="1">
+      <c r="U21" s="4">
         <v>8</v>
       </c>
       <c r="V21" s="1" t="s">
@@ -3378,7 +3405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>33</v>
       </c>
@@ -3436,7 +3463,7 @@
       <c r="T22" s="1">
         <v>0</v>
       </c>
-      <c r="U22" s="1">
+      <c r="U22" s="4">
         <v>6</v>
       </c>
       <c r="V22" s="1" t="s">
@@ -3485,7 +3512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>33</v>
       </c>
@@ -3543,7 +3570,7 @@
       <c r="T23" s="1">
         <v>0</v>
       </c>
-      <c r="U23" s="1">
+      <c r="U23" s="4">
         <v>4</v>
       </c>
       <c r="V23" s="1" t="s">
@@ -3592,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>33</v>
       </c>
@@ -3650,6 +3677,9 @@
       <c r="T24" s="1">
         <v>0</v>
       </c>
+      <c r="U24" s="4">
+        <v>8</v>
+      </c>
       <c r="W24" s="1">
         <v>1</v>
       </c>
@@ -3693,7 +3723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>60</v>
       </c>
@@ -3751,6 +3781,9 @@
       <c r="T25" s="1">
         <v>0</v>
       </c>
+      <c r="U25" s="4">
+        <v>6</v>
+      </c>
       <c r="W25" s="1">
         <v>1</v>
       </c>
@@ -3794,7 +3827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>62</v>
       </c>
@@ -3852,6 +3885,9 @@
       <c r="T26" s="1">
         <v>0</v>
       </c>
+      <c r="U26" s="4">
+        <v>5</v>
+      </c>
       <c r="W26" s="1">
         <v>1</v>
       </c>
@@ -3895,7 +3931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>65</v>
       </c>
@@ -3953,6 +3989,9 @@
       <c r="T27" s="1">
         <v>0</v>
       </c>
+      <c r="U27" s="4">
+        <v>3</v>
+      </c>
       <c r="W27" s="1">
         <v>1</v>
       </c>
@@ -3996,7 +4035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -4054,7 +4093,7 @@
       <c r="T28" s="1">
         <v>0</v>
       </c>
-      <c r="U28" s="1">
+      <c r="U28" s="4">
         <v>5</v>
       </c>
       <c r="V28" s="1" t="s">
@@ -4103,7 +4142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4161,7 +4200,7 @@
       <c r="T29" s="1">
         <v>0</v>
       </c>
-      <c r="U29" s="1">
+      <c r="U29" s="4">
         <v>6</v>
       </c>
       <c r="V29" s="1" t="s">
@@ -4210,7 +4249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -4268,7 +4307,7 @@
       <c r="T30" s="1">
         <v>0</v>
       </c>
-      <c r="U30" s="1">
+      <c r="U30" s="4">
         <v>8</v>
       </c>
       <c r="V30" s="1" t="s">
@@ -4317,7 +4356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>18</v>
       </c>
@@ -4375,7 +4414,7 @@
       <c r="T31" s="1">
         <v>0</v>
       </c>
-      <c r="U31" s="1">
+      <c r="U31" s="4">
         <v>7</v>
       </c>
       <c r="V31" s="1" t="s">
@@ -4424,7 +4463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>24</v>
       </c>
@@ -4482,7 +4521,7 @@
       <c r="T32" s="1">
         <v>0</v>
       </c>
-      <c r="U32" s="1">
+      <c r="U32" s="4">
         <v>7</v>
       </c>
       <c r="V32" s="1" t="s">
@@ -4531,7 +4570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -4589,7 +4628,7 @@
       <c r="T33" s="1">
         <v>0</v>
       </c>
-      <c r="U33" s="1">
+      <c r="U33" s="4">
         <v>5</v>
       </c>
       <c r="V33" s="1" t="s">
@@ -4638,7 +4677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>35</v>
       </c>
@@ -4696,7 +4735,7 @@
       <c r="T34" s="1">
         <v>0</v>
       </c>
-      <c r="U34" s="1">
+      <c r="U34" s="4">
         <v>6</v>
       </c>
       <c r="V34" s="1" t="s">
@@ -4745,7 +4784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -4803,7 +4842,7 @@
       <c r="T35" s="1">
         <v>0</v>
       </c>
-      <c r="U35" s="1">
+      <c r="U35" s="4">
         <v>8</v>
       </c>
       <c r="V35" s="1" t="s">
@@ -4852,7 +4891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4910,7 +4949,7 @@
       <c r="T36" s="1">
         <v>0</v>
       </c>
-      <c r="U36" s="1">
+      <c r="U36" s="4">
         <v>8</v>
       </c>
       <c r="V36" s="1" t="s">
@@ -4959,7 +4998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>30</v>
       </c>
@@ -5017,6 +5056,9 @@
       <c r="T37" s="1">
         <v>0</v>
       </c>
+      <c r="U37" s="4">
+        <v>2</v>
+      </c>
       <c r="V37" s="1" t="s">
         <v>68</v>
       </c>
@@ -5063,7 +5105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -5121,6 +5163,9 @@
       <c r="T38" s="1">
         <v>0</v>
       </c>
+      <c r="U38" s="4">
+        <v>10</v>
+      </c>
       <c r="V38" s="1" t="s">
         <v>78</v>
       </c>
@@ -5167,7 +5212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>60</v>
       </c>
@@ -5225,7 +5270,7 @@
       <c r="T39" s="1">
         <v>0</v>
       </c>
-      <c r="U39" s="1">
+      <c r="U39" s="4">
         <v>1</v>
       </c>
       <c r="V39" s="1" t="s">
@@ -5274,7 +5319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>58</v>
       </c>
@@ -5332,7 +5377,7 @@
       <c r="T40" s="1">
         <v>0</v>
       </c>
-      <c r="U40" s="1">
+      <c r="U40" s="4">
         <v>1</v>
       </c>
       <c r="V40" s="1" t="s">
@@ -5381,7 +5426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>48</v>
       </c>
@@ -5439,7 +5484,7 @@
       <c r="T41" s="1">
         <v>0</v>
       </c>
-      <c r="U41" s="1">
+      <c r="U41" s="4">
         <v>4</v>
       </c>
       <c r="W41" s="1">
@@ -5485,7 +5530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>54</v>
       </c>
@@ -5543,7 +5588,7 @@
       <c r="T42" s="1">
         <v>0</v>
       </c>
-      <c r="U42" s="1">
+      <c r="U42" s="4">
         <v>3</v>
       </c>
       <c r="V42" s="1" t="s">
@@ -5592,7 +5637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>47</v>
       </c>
@@ -5650,7 +5695,7 @@
       <c r="T43" s="1">
         <v>0</v>
       </c>
-      <c r="U43" s="1">
+      <c r="U43" s="4">
         <v>1</v>
       </c>
       <c r="W43" s="1">
@@ -5696,7 +5741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>55</v>
       </c>
@@ -5754,6 +5799,9 @@
       <c r="T44" s="1">
         <v>0</v>
       </c>
+      <c r="U44" s="4">
+        <v>1</v>
+      </c>
       <c r="V44" s="1" t="s">
         <v>80</v>
       </c>
@@ -5800,7 +5848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>28</v>
       </c>
@@ -5858,6 +5906,9 @@
       <c r="T45" s="1">
         <v>0</v>
       </c>
+      <c r="U45" s="4">
+        <v>4</v>
+      </c>
       <c r="W45" s="3">
         <v>0</v>
       </c>
@@ -5901,7 +5952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>30</v>
       </c>
@@ -5959,6 +6010,9 @@
       <c r="T46" s="1">
         <v>0</v>
       </c>
+      <c r="U46" s="4">
+        <v>7</v>
+      </c>
       <c r="W46" s="1">
         <v>1</v>
       </c>
@@ -6002,7 +6056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>23</v>
       </c>
@@ -6060,7 +6114,7 @@
       <c r="T47" s="1">
         <v>0</v>
       </c>
-      <c r="U47" s="1">
+      <c r="U47" s="4">
         <v>5</v>
       </c>
       <c r="W47" s="1">
@@ -6106,7 +6160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>23</v>
       </c>
@@ -6164,7 +6218,7 @@
       <c r="T48" s="1">
         <v>0</v>
       </c>
-      <c r="U48" s="1">
+      <c r="U48" s="4">
         <v>5</v>
       </c>
       <c r="W48" s="1">
@@ -6210,7 +6264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>32</v>
       </c>
@@ -6268,7 +6322,7 @@
       <c r="T49" s="1">
         <v>0</v>
       </c>
-      <c r="U49" s="1">
+      <c r="U49" s="4">
         <v>5</v>
       </c>
       <c r="W49" s="1">
@@ -6314,7 +6368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>17</v>
       </c>
@@ -6375,6 +6429,9 @@
       <c r="T50" s="1">
         <v>0</v>
       </c>
+      <c r="U50" s="4">
+        <v>9</v>
+      </c>
       <c r="V50" s="1" t="s">
         <v>85</v>
       </c>
@@ -6421,7 +6478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>32</v>
       </c>
@@ -6479,7 +6536,7 @@
       <c r="T51" s="1">
         <v>0</v>
       </c>
-      <c r="U51" s="1">
+      <c r="U51" s="4">
         <v>2</v>
       </c>
       <c r="V51" s="1" t="s">
@@ -6528,7 +6585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>32</v>
       </c>
@@ -6586,7 +6643,7 @@
       <c r="T52" s="1">
         <v>0</v>
       </c>
-      <c r="U52" s="1">
+      <c r="U52" s="4">
         <v>3</v>
       </c>
       <c r="V52" s="1" t="s">
@@ -6635,7 +6692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>27</v>
       </c>
@@ -6693,7 +6750,7 @@
       <c r="T53" s="1">
         <v>0</v>
       </c>
-      <c r="U53" s="1">
+      <c r="U53" s="4">
         <v>2</v>
       </c>
       <c r="W53" s="1">
@@ -6739,7 +6796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>28</v>
       </c>
@@ -6797,6 +6854,9 @@
       <c r="T54" s="1">
         <v>0</v>
       </c>
+      <c r="U54" s="4">
+        <v>6</v>
+      </c>
       <c r="W54" s="1">
         <v>1</v>
       </c>
@@ -6840,7 +6900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>33</v>
       </c>
@@ -6898,7 +6958,7 @@
       <c r="T55" s="1">
         <v>0</v>
       </c>
-      <c r="U55" s="1">
+      <c r="U55" s="4">
         <v>6</v>
       </c>
       <c r="V55" s="1" t="s">
@@ -6947,7 +7007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>33</v>
       </c>
@@ -7005,7 +7065,7 @@
       <c r="T56" s="1">
         <v>0</v>
       </c>
-      <c r="U56" s="1">
+      <c r="U56" s="4">
         <v>6</v>
       </c>
       <c r="V56" s="1" t="s">
@@ -7054,7 +7114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>33</v>
       </c>
@@ -7112,6 +7172,9 @@
       <c r="T57" s="1">
         <v>0</v>
       </c>
+      <c r="U57" s="4">
+        <v>3</v>
+      </c>
       <c r="W57" s="1">
         <v>1</v>
       </c>
@@ -7155,7 +7218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>28</v>
       </c>
@@ -7213,7 +7276,7 @@
       <c r="T58" s="1">
         <v>0</v>
       </c>
-      <c r="U58" s="1">
+      <c r="U58" s="4">
         <v>2</v>
       </c>
       <c r="V58" s="1" t="s">
@@ -7262,7 +7325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>28</v>
       </c>
@@ -7320,7 +7383,7 @@
       <c r="T59" s="1">
         <v>0</v>
       </c>
-      <c r="U59" s="1">
+      <c r="U59" s="4">
         <v>2</v>
       </c>
       <c r="V59" s="1" t="s">
@@ -7369,7 +7432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>28</v>
       </c>
@@ -7427,7 +7490,7 @@
       <c r="T60" s="1">
         <v>0</v>
       </c>
-      <c r="U60" s="1">
+      <c r="U60" s="4">
         <v>3</v>
       </c>
       <c r="V60" s="1" t="s">
@@ -7476,7 +7539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>31</v>
       </c>
@@ -7534,7 +7597,7 @@
       <c r="T61" s="1">
         <v>0</v>
       </c>
-      <c r="U61" s="1">
+      <c r="U61" s="4">
         <v>3</v>
       </c>
       <c r="V61" s="1" t="s">
@@ -7583,7 +7646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>66</v>
       </c>
@@ -7642,7 +7705,7 @@
       <c r="T62" s="1">
         <v>0</v>
       </c>
-      <c r="U62" s="1">
+      <c r="U62" s="4">
         <v>1</v>
       </c>
       <c r="W62" s="1">
@@ -7688,7 +7751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>65</v>
       </c>
@@ -7747,7 +7810,7 @@
       <c r="T63" s="1">
         <v>0</v>
       </c>
-      <c r="U63" s="1">
+      <c r="U63" s="4">
         <v>1</v>
       </c>
       <c r="V63" s="1" t="s">
@@ -7796,7 +7859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>70</v>
       </c>
@@ -7855,7 +7918,7 @@
       <c r="T64" s="1">
         <v>0</v>
       </c>
-      <c r="U64" s="1">
+      <c r="U64" s="4">
         <v>1</v>
       </c>
       <c r="W64" s="3">
@@ -7901,7 +7964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>39</v>
       </c>
@@ -7960,7 +8023,7 @@
       <c r="T65" s="1">
         <v>0</v>
       </c>
-      <c r="U65" s="1">
+      <c r="U65" s="4">
         <v>2</v>
       </c>
       <c r="V65" s="1" t="s">
@@ -8009,7 +8072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>16</v>
       </c>
@@ -8067,6 +8130,9 @@
       <c r="T66" s="1">
         <v>0</v>
       </c>
+      <c r="U66" s="4">
+        <v>13</v>
+      </c>
       <c r="V66" s="1" t="s">
         <v>90</v>
       </c>
@@ -8113,7 +8179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>27</v>
       </c>
@@ -8171,6 +8237,9 @@
       <c r="T67" s="1">
         <v>0</v>
       </c>
+      <c r="U67" s="4">
+        <v>7</v>
+      </c>
       <c r="V67" s="1" t="s">
         <v>92</v>
       </c>
@@ -8217,7 +8286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>43</v>
       </c>
@@ -8275,6 +8344,9 @@
       <c r="T68" s="1">
         <v>0</v>
       </c>
+      <c r="U68" s="4">
+        <v>5</v>
+      </c>
       <c r="V68" s="1" t="s">
         <v>93</v>
       </c>
@@ -8321,7 +8393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>16</v>
       </c>
@@ -8379,6 +8451,9 @@
       <c r="T69" s="1">
         <v>0</v>
       </c>
+      <c r="U69" s="4">
+        <v>2</v>
+      </c>
       <c r="V69" s="1" t="s">
         <v>94</v>
       </c>
@@ -8425,7 +8500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>25</v>
       </c>
@@ -8486,6 +8561,9 @@
       <c r="T70" s="1">
         <v>0</v>
       </c>
+      <c r="U70" s="4">
+        <v>2</v>
+      </c>
       <c r="V70" s="1" t="s">
         <v>96</v>
       </c>
@@ -8532,7 +8610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>25</v>
       </c>
@@ -8591,7 +8669,7 @@
       <c r="T71" s="1">
         <v>0</v>
       </c>
-      <c r="U71" s="1">
+      <c r="U71" s="4">
         <v>2</v>
       </c>
       <c r="V71" s="1" t="s">
@@ -8640,7 +8718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>29</v>
       </c>
@@ -8698,7 +8776,7 @@
       <c r="T72" s="1">
         <v>0</v>
       </c>
-      <c r="U72" s="1">
+      <c r="U72" s="4">
         <v>4</v>
       </c>
       <c r="V72" s="1" t="s">
@@ -8747,7 +8825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>30</v>
       </c>
@@ -8805,7 +8883,7 @@
       <c r="T73" s="1">
         <v>0</v>
       </c>
-      <c r="U73" s="1">
+      <c r="U73" s="4">
         <v>2</v>
       </c>
       <c r="V73" s="1" t="s">
@@ -8854,7 +8932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>34</v>
       </c>
@@ -8913,7 +8991,7 @@
       <c r="T74" s="1">
         <v>0</v>
       </c>
-      <c r="U74" s="1">
+      <c r="U74" s="4">
         <v>6</v>
       </c>
       <c r="V74" s="1" t="s">
@@ -8962,7 +9040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>30</v>
       </c>
@@ -9021,7 +9099,7 @@
       <c r="T75" s="1">
         <v>0</v>
       </c>
-      <c r="U75" s="1">
+      <c r="U75" s="4">
         <v>4</v>
       </c>
       <c r="V75" s="1" t="s">
@@ -9070,7 +9148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>24</v>
       </c>
@@ -9128,6 +9206,9 @@
       <c r="T76" s="1">
         <v>0</v>
       </c>
+      <c r="U76" s="4">
+        <v>1</v>
+      </c>
       <c r="V76" s="1" t="s">
         <v>68</v>
       </c>
@@ -9174,7 +9255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>53</v>
       </c>
@@ -9233,7 +9314,7 @@
       <c r="T77" s="1">
         <v>0</v>
       </c>
-      <c r="U77" s="1">
+      <c r="U77" s="4">
         <v>7</v>
       </c>
       <c r="W77" s="1">
@@ -9279,7 +9360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>28</v>
       </c>
@@ -9337,7 +9418,7 @@
       <c r="T78" s="1">
         <v>0</v>
       </c>
-      <c r="U78" s="1">
+      <c r="U78" s="4">
         <v>7</v>
       </c>
       <c r="V78" s="1" t="s">
@@ -9386,7 +9467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>32</v>
       </c>
@@ -9444,7 +9525,7 @@
       <c r="T79" s="1">
         <v>0</v>
       </c>
-      <c r="U79" s="1">
+      <c r="U79" s="4">
         <v>8</v>
       </c>
       <c r="V79" s="1" t="s">
@@ -9493,7 +9574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>34</v>
       </c>
@@ -9551,7 +9632,7 @@
       <c r="T80" s="1">
         <v>0</v>
       </c>
-      <c r="U80" s="1">
+      <c r="U80" s="4">
         <v>8</v>
       </c>
       <c r="V80" s="1" t="s">
@@ -9600,7 +9681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>26</v>
       </c>
@@ -9658,7 +9739,7 @@
       <c r="T81" s="1">
         <v>0</v>
       </c>
-      <c r="U81" s="1">
+      <c r="U81" s="4">
         <v>3</v>
       </c>
       <c r="V81" s="1" t="s">
@@ -9707,7 +9788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>26</v>
       </c>
@@ -9768,7 +9849,7 @@
       <c r="T82" s="1">
         <v>0</v>
       </c>
-      <c r="U82" s="1">
+      <c r="U82" s="4">
         <v>8</v>
       </c>
       <c r="V82" s="1" t="s">
@@ -9817,7 +9898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>25</v>
       </c>
@@ -9878,7 +9959,7 @@
       <c r="T83" s="1">
         <v>0</v>
       </c>
-      <c r="U83" s="1">
+      <c r="U83" s="4">
         <v>3</v>
       </c>
       <c r="V83" s="1" t="s">
@@ -9927,7 +10008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>55</v>
       </c>
@@ -9985,7 +10066,7 @@
       <c r="T84" s="1">
         <v>0</v>
       </c>
-      <c r="U84" s="1">
+      <c r="U84" s="4">
         <v>2</v>
       </c>
       <c r="V84" s="1" t="s">
@@ -10034,7 +10115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>57</v>
       </c>
@@ -10092,7 +10173,7 @@
       <c r="T85" s="1">
         <v>0</v>
       </c>
-      <c r="U85" s="1">
+      <c r="U85" s="4">
         <v>2</v>
       </c>
       <c r="V85" s="1" t="s">
@@ -10141,7 +10222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>28</v>
       </c>
@@ -10199,6 +10280,9 @@
       <c r="T86" s="1">
         <v>0</v>
       </c>
+      <c r="U86" s="4">
+        <v>8</v>
+      </c>
       <c r="W86" s="1">
         <v>1</v>
       </c>
@@ -10242,7 +10326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>30</v>
       </c>
@@ -10300,6 +10384,9 @@
       <c r="T87" s="1">
         <v>0</v>
       </c>
+      <c r="U87" s="4">
+        <v>3</v>
+      </c>
       <c r="W87" s="1">
         <v>1</v>
       </c>
@@ -10343,7 +10430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>25</v>
       </c>
@@ -10401,7 +10488,7 @@
       <c r="T88" s="1">
         <v>0</v>
       </c>
-      <c r="U88" s="1">
+      <c r="U88" s="4">
         <v>6</v>
       </c>
       <c r="W88" s="1">
@@ -10447,7 +10534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>26</v>
       </c>
@@ -10505,7 +10592,7 @@
       <c r="T89" s="1">
         <v>0</v>
       </c>
-      <c r="U89" s="1">
+      <c r="U89" s="4">
         <v>6</v>
       </c>
       <c r="W89" s="1">
@@ -10551,7 +10638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>34</v>
       </c>
@@ -10609,7 +10696,7 @@
       <c r="T90" s="1">
         <v>0</v>
       </c>
-      <c r="U90" s="1">
+      <c r="U90" s="4">
         <v>8</v>
       </c>
       <c r="V90" s="1" t="s">
@@ -10658,7 +10745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>22</v>
       </c>
@@ -10716,7 +10803,7 @@
       <c r="T91" s="1">
         <v>0</v>
       </c>
-      <c r="U91" s="1">
+      <c r="U91" s="4">
         <v>8</v>
       </c>
       <c r="V91" s="1" t="s">
@@ -10765,7 +10852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>25</v>
       </c>
@@ -10823,7 +10910,7 @@
       <c r="T92" s="1">
         <v>0</v>
       </c>
-      <c r="U92" s="1">
+      <c r="U92" s="4">
         <v>8</v>
       </c>
       <c r="V92" s="1" t="s">
@@ -10872,7 +10959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>33</v>
       </c>
@@ -10930,7 +11017,7 @@
       <c r="T93" s="1">
         <v>0</v>
       </c>
-      <c r="U93" s="1">
+      <c r="U93" s="4">
         <v>8</v>
       </c>
       <c r="V93" s="1" t="s">
@@ -10979,7 +11066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>20</v>
       </c>
@@ -11037,7 +11124,7 @@
       <c r="T94" s="1">
         <v>0</v>
       </c>
-      <c r="U94" s="1">
+      <c r="U94" s="4">
         <v>20</v>
       </c>
       <c r="V94" s="1" t="s">
@@ -11086,7 +11173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>22</v>
       </c>
@@ -11144,7 +11231,7 @@
       <c r="T95" s="1">
         <v>0</v>
       </c>
-      <c r="U95" s="1">
+      <c r="U95" s="4">
         <v>8</v>
       </c>
       <c r="V95" s="1" t="s">
@@ -11193,7 +11280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>22</v>
       </c>
@@ -11251,7 +11338,7 @@
       <c r="T96" s="1">
         <v>0</v>
       </c>
-      <c r="U96" s="1">
+      <c r="U96" s="4">
         <v>8</v>
       </c>
       <c r="V96" s="1" t="s">
@@ -11300,7 +11387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>32</v>
       </c>
@@ -11358,7 +11445,7 @@
       <c r="T97" s="1">
         <v>0</v>
       </c>
-      <c r="U97" s="1">
+      <c r="U97" s="4">
         <v>10</v>
       </c>
       <c r="V97" s="1" t="s">
@@ -11407,7 +11494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>22</v>
       </c>
@@ -11465,7 +11552,7 @@
       <c r="T98" s="1">
         <v>0</v>
       </c>
-      <c r="U98" s="1">
+      <c r="U98" s="4">
         <v>8</v>
       </c>
       <c r="V98" s="1" t="s">
@@ -11514,7 +11601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>30</v>
       </c>
@@ -11572,6 +11659,9 @@
       <c r="T99" s="1">
         <v>0</v>
       </c>
+      <c r="U99" s="4">
+        <v>5</v>
+      </c>
       <c r="V99" s="1" t="s">
         <v>68</v>
       </c>
@@ -11618,7 +11708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>30</v>
       </c>
@@ -11676,6 +11766,9 @@
       <c r="T100" s="1">
         <v>0</v>
       </c>
+      <c r="U100" s="4">
+        <v>4</v>
+      </c>
       <c r="V100" s="1" t="s">
         <v>111</v>
       </c>
@@ -11722,7 +11815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>29</v>
       </c>
@@ -11780,7 +11873,7 @@
       <c r="T101" s="1">
         <v>0</v>
       </c>
-      <c r="U101" s="1">
+      <c r="U101" s="4">
         <v>4</v>
       </c>
       <c r="V101" s="1" t="s">
@@ -11829,7 +11922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>83</v>
       </c>
@@ -11887,6 +11980,9 @@
       <c r="T102" s="1">
         <v>0</v>
       </c>
+      <c r="U102" s="4">
+        <v>9</v>
+      </c>
       <c r="V102" s="1" t="s">
         <v>114</v>
       </c>
@@ -11933,7 +12029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>28</v>
       </c>
@@ -11991,6 +12087,9 @@
       <c r="T103" s="1">
         <v>0</v>
       </c>
+      <c r="U103" s="4">
+        <v>8</v>
+      </c>
       <c r="V103" s="1" t="s">
         <v>68</v>
       </c>
@@ -12037,7 +12136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>31</v>
       </c>
@@ -12095,7 +12194,7 @@
       <c r="T104" s="1">
         <v>0</v>
       </c>
-      <c r="U104" s="1">
+      <c r="U104" s="4">
         <v>8</v>
       </c>
       <c r="V104" s="1" t="s">
@@ -12144,7 +12243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>18</v>
       </c>
@@ -12202,7 +12301,7 @@
       <c r="T105" s="1">
         <v>0</v>
       </c>
-      <c r="U105" s="1">
+      <c r="U105" s="4">
         <v>10</v>
       </c>
       <c r="V105" s="1" t="s">
@@ -12251,7 +12350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>19</v>
       </c>
@@ -12309,7 +12408,7 @@
       <c r="T106" s="1">
         <v>0</v>
       </c>
-      <c r="U106" s="1">
+      <c r="U106" s="4">
         <v>10</v>
       </c>
       <c r="V106" s="1" t="s">
@@ -12358,7 +12457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>19</v>
       </c>
@@ -12416,7 +12515,7 @@
       <c r="T107" s="1">
         <v>1</v>
       </c>
-      <c r="U107" s="1">
+      <c r="U107" s="4">
         <v>8</v>
       </c>
       <c r="V107" s="1" t="s">
@@ -12465,7 +12564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>24</v>
       </c>
@@ -12523,7 +12622,7 @@
       <c r="T108" s="1">
         <v>0</v>
       </c>
-      <c r="U108" s="1">
+      <c r="U108" s="4">
         <v>10</v>
       </c>
       <c r="V108" s="1" t="s">
@@ -12572,7 +12671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>23</v>
       </c>
@@ -12631,7 +12730,7 @@
       <c r="T109" s="1">
         <v>1</v>
       </c>
-      <c r="U109" s="1">
+      <c r="U109" s="4">
         <v>10</v>
       </c>
       <c r="V109" s="1" t="s">
@@ -12680,7 +12779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>22</v>
       </c>
@@ -12739,7 +12838,7 @@
       <c r="T110" s="1">
         <v>1</v>
       </c>
-      <c r="U110" s="1">
+      <c r="U110" s="4">
         <v>10</v>
       </c>
       <c r="V110" s="1" t="s">
@@ -12788,7 +12887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>23</v>
       </c>
@@ -12847,7 +12946,7 @@
       <c r="T111" s="1">
         <v>1</v>
       </c>
-      <c r="U111" s="1">
+      <c r="U111" s="4">
         <v>8</v>
       </c>
       <c r="V111" s="1" t="s">
@@ -12896,7 +12995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>22</v>
       </c>
@@ -12955,7 +13054,7 @@
       <c r="T112" s="1">
         <v>1</v>
       </c>
-      <c r="U112" s="1">
+      <c r="U112" s="4">
         <v>12</v>
       </c>
       <c r="V112" s="1" t="s">
@@ -13004,7 +13103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>22</v>
       </c>
@@ -13063,7 +13162,7 @@
       <c r="T113" s="1">
         <v>1</v>
       </c>
-      <c r="U113" s="1">
+      <c r="U113" s="4">
         <v>12</v>
       </c>
       <c r="V113" s="1" t="s">
@@ -13112,7 +13211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>20</v>
       </c>
@@ -13171,6 +13270,9 @@
       <c r="T114" s="1">
         <v>0</v>
       </c>
+      <c r="U114" s="4">
+        <v>3</v>
+      </c>
       <c r="W114" s="1">
         <v>1</v>
       </c>
@@ -13214,7 +13316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>58</v>
       </c>
@@ -13273,7 +13375,7 @@
       <c r="T115" s="1">
         <v>0</v>
       </c>
-      <c r="U115" s="1">
+      <c r="U115" s="4">
         <v>1</v>
       </c>
       <c r="V115" s="1" t="s">
@@ -13322,7 +13424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>20</v>
       </c>
@@ -13380,6 +13482,9 @@
       <c r="T116" s="1">
         <v>0</v>
       </c>
+      <c r="U116" s="4">
+        <v>1</v>
+      </c>
       <c r="V116" s="1" t="s">
         <v>127</v>
       </c>
@@ -13426,7 +13531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>52</v>
       </c>
@@ -13484,6 +13589,9 @@
       <c r="T117" s="1">
         <v>0</v>
       </c>
+      <c r="U117" s="4">
+        <v>4</v>
+      </c>
       <c r="W117" s="3">
         <v>0</v>
       </c>
@@ -13527,7 +13635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>57</v>
       </c>
@@ -13585,6 +13693,9 @@
       <c r="T118" s="1">
         <v>0</v>
       </c>
+      <c r="U118" s="4">
+        <v>7</v>
+      </c>
       <c r="W118" s="1">
         <v>1</v>
       </c>
@@ -13628,7 +13739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>49</v>
       </c>
@@ -13686,8 +13797,8 @@
       <c r="T119" s="1">
         <v>0</v>
       </c>
-      <c r="U119" s="1">
-        <v>2</v>
+      <c r="U119" s="4">
+        <v>6</v>
       </c>
       <c r="V119" s="1" t="s">
         <v>59</v>
@@ -13735,7 +13846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>58</v>
       </c>
@@ -13793,7 +13904,7 @@
       <c r="T120" s="1">
         <v>0</v>
       </c>
-      <c r="U120" s="1">
+      <c r="U120" s="4">
         <v>1</v>
       </c>
       <c r="V120" s="1" t="s">
@@ -13842,7 +13953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>60</v>
       </c>
@@ -13903,7 +14014,7 @@
       <c r="T121" s="1">
         <v>0</v>
       </c>
-      <c r="U121" s="1">
+      <c r="U121" s="4">
         <v>1</v>
       </c>
       <c r="V121" s="1" t="s">
@@ -13952,7 +14063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>30</v>
       </c>
@@ -14010,7 +14121,7 @@
       <c r="T122" s="1">
         <v>0</v>
       </c>
-      <c r="U122" s="1">
+      <c r="U122" s="4">
         <v>8</v>
       </c>
       <c r="V122" s="1" t="s">
@@ -14059,7 +14170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>30</v>
       </c>
@@ -14117,7 +14228,7 @@
       <c r="T123" s="1">
         <v>0</v>
       </c>
-      <c r="U123" s="1">
+      <c r="U123" s="4">
         <v>5</v>
       </c>
       <c r="V123" s="1" t="s">
@@ -14166,7 +14277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>30</v>
       </c>
@@ -14224,7 +14335,7 @@
       <c r="T124" s="1">
         <v>0</v>
       </c>
-      <c r="U124" s="1">
+      <c r="U124" s="4">
         <v>3</v>
       </c>
       <c r="V124" s="1" t="s">
@@ -14273,7 +14384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>30</v>
       </c>
@@ -14331,7 +14442,7 @@
       <c r="T125" s="1">
         <v>0</v>
       </c>
-      <c r="U125" s="1">
+      <c r="U125" s="4">
         <v>8</v>
       </c>
       <c r="V125" s="1" t="s">
@@ -14380,7 +14491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>24</v>
       </c>
@@ -14441,7 +14552,7 @@
       <c r="T126" s="1">
         <v>0</v>
       </c>
-      <c r="U126" s="1">
+      <c r="U126" s="4">
         <v>5</v>
       </c>
       <c r="V126" s="1" t="s">
@@ -14490,7 +14601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>26</v>
       </c>
@@ -14551,7 +14662,7 @@
       <c r="T127" s="1">
         <v>0</v>
       </c>
-      <c r="U127" s="1">
+      <c r="U127" s="4">
         <v>1</v>
       </c>
       <c r="V127" s="1" t="s">
@@ -14600,7 +14711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>30</v>
       </c>
@@ -14658,6 +14769,9 @@
       <c r="T128" s="1">
         <v>0</v>
       </c>
+      <c r="U128" s="4">
+        <v>9</v>
+      </c>
       <c r="W128" s="3">
         <v>0</v>
       </c>
@@ -14701,7 +14815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>29</v>
       </c>
@@ -14759,7 +14873,7 @@
       <c r="T129" s="1">
         <v>0</v>
       </c>
-      <c r="U129" s="1">
+      <c r="U129" s="4">
         <v>11</v>
       </c>
       <c r="V129" s="1" t="s">
@@ -14808,7 +14922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>23</v>
       </c>
@@ -14866,6 +14980,9 @@
       <c r="T130" s="1">
         <v>0</v>
       </c>
+      <c r="U130" s="4">
+        <v>9</v>
+      </c>
       <c r="V130" s="1" t="s">
         <v>89</v>
       </c>
@@ -14912,7 +15029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>26</v>
       </c>
@@ -14970,7 +15087,7 @@
       <c r="T131" s="1">
         <v>0</v>
       </c>
-      <c r="U131" s="1">
+      <c r="U131" s="4">
         <v>10</v>
       </c>
       <c r="V131" s="1" t="s">
@@ -15019,7 +15136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>26</v>
       </c>
@@ -15077,7 +15194,7 @@
       <c r="T132" s="1">
         <v>0</v>
       </c>
-      <c r="U132" s="1">
+      <c r="U132" s="4">
         <v>8</v>
       </c>
       <c r="V132" s="1" t="s">
@@ -15126,7 +15243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>32</v>
       </c>
@@ -15184,7 +15301,7 @@
       <c r="T133" s="1">
         <v>0</v>
       </c>
-      <c r="U133" s="1">
+      <c r="U133" s="4">
         <v>8</v>
       </c>
       <c r="V133" s="1" t="s">
@@ -15233,7 +15350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>26</v>
       </c>
@@ -15291,7 +15408,7 @@
       <c r="T134" s="1">
         <v>0</v>
       </c>
-      <c r="U134" s="1">
+      <c r="U134" s="4">
         <v>8</v>
       </c>
       <c r="V134" s="1" t="s">
@@ -15340,7 +15457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>30</v>
       </c>
@@ -15398,7 +15515,7 @@
       <c r="T135" s="1">
         <v>0</v>
       </c>
-      <c r="U135" s="1">
+      <c r="U135" s="4">
         <v>8</v>
       </c>
       <c r="V135" s="1" t="s">
@@ -15447,7 +15564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>28</v>
       </c>
@@ -15505,7 +15622,7 @@
       <c r="T136" s="1">
         <v>0</v>
       </c>
-      <c r="U136" s="1">
+      <c r="U136" s="4">
         <v>7</v>
       </c>
       <c r="V136" s="1" t="s">
@@ -15554,7 +15671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>29</v>
       </c>
@@ -15612,7 +15729,7 @@
       <c r="T137" s="1">
         <v>0</v>
       </c>
-      <c r="U137" s="1">
+      <c r="U137" s="4">
         <v>2</v>
       </c>
       <c r="V137" s="1" t="s">
@@ -15661,7 +15778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>29</v>
       </c>
@@ -15719,7 +15836,7 @@
       <c r="T138" s="1">
         <v>0</v>
       </c>
-      <c r="U138" s="1">
+      <c r="U138" s="4">
         <v>7</v>
       </c>
       <c r="V138" s="1" t="s">
@@ -15768,7 +15885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>28</v>
       </c>
@@ -15826,6 +15943,9 @@
       <c r="T139" s="1">
         <v>0</v>
       </c>
+      <c r="U139" s="4">
+        <v>14</v>
+      </c>
       <c r="V139" s="1" t="s">
         <v>141</v>
       </c>
@@ -15872,7 +15992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>36</v>
       </c>
@@ -15930,7 +16050,7 @@
       <c r="T140" s="1">
         <v>0</v>
       </c>
-      <c r="U140" s="1">
+      <c r="U140" s="4">
         <v>2</v>
       </c>
       <c r="V140" s="1" t="s">
@@ -15979,7 +16099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>22</v>
       </c>
@@ -16037,7 +16157,7 @@
       <c r="T141" s="1">
         <v>0</v>
       </c>
-      <c r="U141" s="1">
+      <c r="U141" s="4">
         <v>3</v>
       </c>
       <c r="V141" s="1" t="s">
@@ -16086,7 +16206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>18</v>
       </c>
@@ -16144,7 +16264,7 @@
       <c r="T142" s="1">
         <v>0</v>
       </c>
-      <c r="U142" s="1">
+      <c r="U142" s="4">
         <v>3</v>
       </c>
       <c r="V142" s="1" t="s">
@@ -16193,7 +16313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>20</v>
       </c>
@@ -16251,7 +16371,7 @@
       <c r="T143" s="1">
         <v>0</v>
       </c>
-      <c r="U143" s="1">
+      <c r="U143" s="4">
         <v>3</v>
       </c>
       <c r="V143" s="1" t="s">
@@ -16300,7 +16420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>20</v>
       </c>
@@ -16358,7 +16478,7 @@
       <c r="T144" s="1">
         <v>0</v>
       </c>
-      <c r="U144" s="1">
+      <c r="U144" s="4">
         <v>2</v>
       </c>
       <c r="V144" s="1" t="s">
@@ -16407,7 +16527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>25</v>
       </c>
@@ -16465,7 +16585,7 @@
       <c r="T145" s="1">
         <v>0</v>
       </c>
-      <c r="U145" s="1">
+      <c r="U145" s="4">
         <v>8</v>
       </c>
       <c r="V145" s="1" t="s">
@@ -16514,7 +16634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>39</v>
       </c>
@@ -16572,7 +16692,7 @@
       <c r="T146" s="1">
         <v>0</v>
       </c>
-      <c r="U146" s="1">
+      <c r="U146" s="4">
         <v>3</v>
       </c>
       <c r="V146" s="1" t="s">
@@ -16621,7 +16741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>25</v>
       </c>
@@ -16679,7 +16799,7 @@
       <c r="T147" s="1">
         <v>0</v>
       </c>
-      <c r="U147" s="1">
+      <c r="U147" s="4">
         <v>5</v>
       </c>
       <c r="V147" s="1" t="s">
@@ -16728,7 +16848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>45</v>
       </c>
@@ -16789,7 +16909,7 @@
       <c r="T148" s="1">
         <v>0</v>
       </c>
-      <c r="U148" s="1">
+      <c r="U148" s="4">
         <v>5</v>
       </c>
       <c r="W148" s="1">
@@ -16835,7 +16955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>28</v>
       </c>
@@ -16893,7 +17013,7 @@
       <c r="T149" s="1">
         <v>0</v>
       </c>
-      <c r="U149" s="1">
+      <c r="U149" s="4">
         <v>1</v>
       </c>
       <c r="V149" s="1" t="s">
@@ -16942,7 +17062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>36</v>
       </c>
@@ -17000,7 +17120,7 @@
       <c r="T150" s="1">
         <v>0</v>
       </c>
-      <c r="U150" s="1">
+      <c r="U150" s="4">
         <v>5</v>
       </c>
       <c r="V150" s="1" t="s">
@@ -17049,7 +17169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>28</v>
       </c>
@@ -17107,6 +17227,9 @@
       <c r="T151" s="1">
         <v>0</v>
       </c>
+      <c r="U151" s="4">
+        <v>17</v>
+      </c>
       <c r="W151" s="1">
         <v>1</v>
       </c>
@@ -17150,7 +17273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>21</v>
       </c>
@@ -17208,7 +17331,7 @@
       <c r="T152" s="1">
         <v>0</v>
       </c>
-      <c r="U152" s="1">
+      <c r="U152" s="4">
         <v>7</v>
       </c>
       <c r="V152" s="1" t="s">
@@ -17257,7 +17380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>26</v>
       </c>
@@ -17315,7 +17438,7 @@
       <c r="T153" s="1">
         <v>1</v>
       </c>
-      <c r="U153" s="1">
+      <c r="U153" s="4">
         <v>1</v>
       </c>
       <c r="V153" s="1" t="s">
@@ -17364,7 +17487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>35</v>
       </c>
@@ -17422,7 +17545,7 @@
       <c r="T154" s="1">
         <v>0</v>
       </c>
-      <c r="U154" s="1">
+      <c r="U154" s="4">
         <v>3</v>
       </c>
       <c r="V154" s="1" t="s">
@@ -17471,7 +17594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>21</v>
       </c>
@@ -17529,7 +17652,7 @@
       <c r="T155" s="1">
         <v>0</v>
       </c>
-      <c r="U155" s="1">
+      <c r="U155" s="4">
         <v>5</v>
       </c>
       <c r="V155" s="1" t="s">
@@ -17578,7 +17701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>26</v>
       </c>
@@ -17636,7 +17759,7 @@
       <c r="T156" s="1">
         <v>0</v>
       </c>
-      <c r="U156" s="1">
+      <c r="U156" s="4">
         <v>10</v>
       </c>
       <c r="V156" s="1" t="s">
@@ -17685,7 +17808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>23</v>
       </c>
@@ -17743,7 +17866,7 @@
       <c r="T157" s="1">
         <v>1</v>
       </c>
-      <c r="U157" s="1">
+      <c r="U157" s="4">
         <v>5</v>
       </c>
       <c r="V157" s="1" t="s">
@@ -17792,7 +17915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>35</v>
       </c>
@@ -17850,7 +17973,7 @@
       <c r="T158" s="1">
         <v>0</v>
       </c>
-      <c r="U158" s="1">
+      <c r="U158" s="4">
         <v>12</v>
       </c>
       <c r="V158" s="1" t="s">
@@ -17899,7 +18022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>34</v>
       </c>
@@ -17957,7 +18080,7 @@
       <c r="T159" s="1">
         <v>0</v>
       </c>
-      <c r="U159" s="1">
+      <c r="U159" s="4">
         <v>24</v>
       </c>
       <c r="V159" s="1" t="s">
@@ -18006,7 +18129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>22</v>
       </c>
@@ -18064,7 +18187,7 @@
       <c r="T160" s="1">
         <v>0</v>
       </c>
-      <c r="U160" s="1">
+      <c r="U160" s="4">
         <v>10</v>
       </c>
       <c r="V160" s="1" t="s">
@@ -18113,7 +18236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>29</v>
       </c>
@@ -18171,7 +18294,7 @@
       <c r="T161" s="1">
         <v>0</v>
       </c>
-      <c r="U161" s="1">
+      <c r="U161" s="4">
         <v>20</v>
       </c>
       <c r="V161" s="1" t="s">
@@ -18220,7 +18343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>21</v>
       </c>
@@ -18281,7 +18404,7 @@
       <c r="T162" s="1">
         <v>0</v>
       </c>
-      <c r="U162" s="1">
+      <c r="U162" s="4">
         <v>5</v>
       </c>
       <c r="V162" s="1" t="s">
@@ -18330,7 +18453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>26</v>
       </c>
@@ -18388,7 +18511,7 @@
       <c r="T163" s="1">
         <v>0</v>
       </c>
-      <c r="U163" s="1">
+      <c r="U163" s="4">
         <v>2</v>
       </c>
       <c r="V163" s="1" t="s">
@@ -18437,7 +18560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>24</v>
       </c>
@@ -18495,7 +18618,7 @@
       <c r="T164" s="1">
         <v>0</v>
       </c>
-      <c r="U164" s="1">
+      <c r="U164" s="4">
         <v>2</v>
       </c>
       <c r="V164" s="1" t="s">
@@ -18544,7 +18667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>16</v>
       </c>
@@ -18605,7 +18728,7 @@
       <c r="T165" s="1">
         <v>0</v>
       </c>
-      <c r="U165" s="1">
+      <c r="U165" s="4">
         <v>2</v>
       </c>
       <c r="V165" s="1" t="s">
@@ -18654,7 +18777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>33</v>
       </c>
@@ -18712,7 +18835,7 @@
       <c r="T166" s="1">
         <v>0</v>
       </c>
-      <c r="U166" s="1">
+      <c r="U166" s="4">
         <v>5</v>
       </c>
       <c r="V166" s="1" t="s">
@@ -18761,7 +18884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>35</v>
       </c>
@@ -18819,7 +18942,7 @@
       <c r="T167" s="1">
         <v>0</v>
       </c>
-      <c r="U167" s="1">
+      <c r="U167" s="4">
         <v>8</v>
       </c>
       <c r="V167" s="1" t="s">
@@ -18868,7 +18991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>30</v>
       </c>
@@ -18926,6 +19049,9 @@
       <c r="T168" s="1">
         <v>0</v>
       </c>
+      <c r="U168" s="4">
+        <v>3</v>
+      </c>
       <c r="W168" s="1">
         <v>1</v>
       </c>
@@ -18969,7 +19095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>28</v>
       </c>
@@ -19027,6 +19153,9 @@
       <c r="T169" s="1">
         <v>0</v>
       </c>
+      <c r="U169" s="4">
+        <v>2</v>
+      </c>
       <c r="W169" s="1">
         <v>1</v>
       </c>
@@ -19070,7 +19199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>21</v>
       </c>
@@ -19128,7 +19257,7 @@
       <c r="T170" s="1">
         <v>0</v>
       </c>
-      <c r="U170" s="1">
+      <c r="U170" s="4">
         <v>8</v>
       </c>
       <c r="V170" s="1" t="s">
@@ -19177,7 +19306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>22</v>
       </c>
@@ -19235,7 +19364,7 @@
       <c r="T171" s="1">
         <v>0</v>
       </c>
-      <c r="U171" s="1">
+      <c r="U171" s="4">
         <v>8</v>
       </c>
       <c r="V171" s="1" t="s">
@@ -19284,7 +19413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>32</v>
       </c>
@@ -19342,7 +19471,7 @@
       <c r="T172" s="1">
         <v>0</v>
       </c>
-      <c r="U172" s="1">
+      <c r="U172" s="4">
         <v>4</v>
       </c>
       <c r="V172" s="1" t="s">
@@ -19391,7 +19520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>25</v>
       </c>
@@ -19450,7 +19579,7 @@
       <c r="T173" s="1">
         <v>0</v>
       </c>
-      <c r="U173" s="1">
+      <c r="U173" s="4">
         <v>1</v>
       </c>
       <c r="V173" s="1" t="s">
@@ -19499,7 +19628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>53</v>
       </c>
@@ -19557,7 +19686,7 @@
       <c r="T174" s="1">
         <v>0</v>
       </c>
-      <c r="U174" s="1">
+      <c r="U174" s="4">
         <v>2</v>
       </c>
       <c r="V174" s="1" t="s">
@@ -19606,7 +19735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>33</v>
       </c>
@@ -19664,7 +19793,7 @@
       <c r="T175" s="1">
         <v>0</v>
       </c>
-      <c r="U175" s="1">
+      <c r="U175" s="4">
         <v>1</v>
       </c>
       <c r="V175" s="1" t="s">
@@ -19713,7 +19842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>23</v>
       </c>
@@ -19772,7 +19901,7 @@
       <c r="T176" s="1">
         <v>0</v>
       </c>
-      <c r="U176" s="1">
+      <c r="U176" s="4">
         <v>4</v>
       </c>
       <c r="V176" s="1" t="s">
@@ -19821,7 +19950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>35</v>
       </c>
@@ -19880,7 +20009,7 @@
       <c r="T177" s="1">
         <v>0</v>
       </c>
-      <c r="U177" s="1">
+      <c r="U177" s="4">
         <v>2</v>
       </c>
       <c r="V177" s="1" t="s">
@@ -19929,7 +20058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>53</v>
       </c>
@@ -19987,6 +20116,9 @@
       <c r="T178" s="1">
         <v>0</v>
       </c>
+      <c r="U178" s="4">
+        <v>9</v>
+      </c>
       <c r="V178" s="1" t="s">
         <v>165</v>
       </c>
@@ -20033,7 +20165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>60</v>
       </c>
@@ -20091,7 +20223,7 @@
       <c r="T179" s="1">
         <v>0</v>
       </c>
-      <c r="U179" s="1">
+      <c r="U179" s="4">
         <v>2</v>
       </c>
       <c r="V179" s="1" t="s">
@@ -20140,7 +20272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>33</v>
       </c>
@@ -20198,7 +20330,7 @@
       <c r="T180" s="1">
         <v>0</v>
       </c>
-      <c r="U180" s="1">
+      <c r="U180" s="4">
         <v>6</v>
       </c>
       <c r="V180" s="1" t="s">
@@ -20247,7 +20379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>20</v>
       </c>
@@ -20308,7 +20440,7 @@
       <c r="T181" s="1">
         <v>0</v>
       </c>
-      <c r="U181" s="1">
+      <c r="U181" s="4">
         <v>2</v>
       </c>
       <c r="V181" s="1" t="s">
@@ -20357,7 +20489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>33</v>
       </c>
@@ -20415,7 +20547,7 @@
       <c r="T182" s="1">
         <v>0</v>
       </c>
-      <c r="U182" s="1">
+      <c r="U182" s="4">
         <v>1</v>
       </c>
       <c r="W182" s="1" t="s">
@@ -20461,7 +20593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>65</v>
       </c>
@@ -20519,7 +20651,7 @@
       <c r="T183" s="1">
         <v>0</v>
       </c>
-      <c r="U183" s="1">
+      <c r="U183" s="4">
         <v>1</v>
       </c>
       <c r="V183" s="1" t="s">
@@ -20568,7 +20700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>29</v>
       </c>
@@ -20626,7 +20758,7 @@
       <c r="T184" s="1">
         <v>0</v>
       </c>
-      <c r="U184" s="1">
+      <c r="U184" s="4">
         <v>6</v>
       </c>
       <c r="V184" s="1" t="s">
@@ -20675,7 +20807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>34</v>
       </c>
@@ -20733,7 +20865,7 @@
       <c r="T185" s="1">
         <v>0</v>
       </c>
-      <c r="U185" s="1">
+      <c r="U185" s="4">
         <v>5</v>
       </c>
       <c r="V185" s="1" t="s">
@@ -20782,7 +20914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>27</v>
       </c>
@@ -20840,7 +20972,7 @@
       <c r="T186" s="1">
         <v>0</v>
       </c>
-      <c r="U186" s="1">
+      <c r="U186" s="4">
         <v>4</v>
       </c>
       <c r="V186" s="1" t="s">
@@ -20889,7 +21021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>27</v>
       </c>
@@ -20947,7 +21079,7 @@
       <c r="T187" s="1">
         <v>0</v>
       </c>
-      <c r="U187" s="1">
+      <c r="U187" s="4">
         <v>7</v>
       </c>
       <c r="V187" s="1" t="s">
@@ -20996,7 +21128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>30</v>
       </c>
@@ -21054,7 +21186,7 @@
       <c r="T188" s="1">
         <v>0</v>
       </c>
-      <c r="U188" s="1">
+      <c r="U188" s="4">
         <v>6</v>
       </c>
       <c r="V188" s="1" t="s">
@@ -21103,7 +21235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>32</v>
       </c>
@@ -21161,7 +21293,7 @@
       <c r="T189" s="1">
         <v>0</v>
       </c>
-      <c r="U189" s="1">
+      <c r="U189" s="4">
         <v>5</v>
       </c>
       <c r="V189" s="1" t="s">
@@ -21210,7 +21342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>25</v>
       </c>
@@ -21268,7 +21400,7 @@
       <c r="T190" s="1">
         <v>0</v>
       </c>
-      <c r="U190" s="1">
+      <c r="U190" s="4">
         <v>5</v>
       </c>
       <c r="V190" s="1" t="s">
@@ -21317,7 +21449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>32</v>
       </c>
@@ -21375,7 +21507,7 @@
       <c r="T191" s="1">
         <v>0</v>
       </c>
-      <c r="U191" s="1">
+      <c r="U191" s="4">
         <v>3</v>
       </c>
       <c r="V191" s="1" t="s">
@@ -21424,7 +21556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>28</v>
       </c>
@@ -21482,7 +21614,7 @@
       <c r="T192" s="1">
         <v>0</v>
       </c>
-      <c r="U192" s="1">
+      <c r="U192" s="4">
         <v>6</v>
       </c>
       <c r="V192" s="1" t="s">
@@ -21531,7 +21663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>26</v>
       </c>
@@ -21592,7 +21724,7 @@
       <c r="T193" s="1">
         <v>0</v>
       </c>
-      <c r="U193" s="1">
+      <c r="U193" s="4">
         <v>5</v>
       </c>
       <c r="V193" s="1" t="s">
@@ -21641,7 +21773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>31</v>
       </c>
@@ -21699,7 +21831,7 @@
       <c r="T194" s="1">
         <v>0</v>
       </c>
-      <c r="U194" s="1">
+      <c r="U194" s="4">
         <v>2</v>
       </c>
       <c r="V194" s="1" t="s">
@@ -21748,7 +21880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>26</v>
       </c>
@@ -21806,7 +21938,7 @@
       <c r="T195" s="1">
         <v>0</v>
       </c>
-      <c r="U195" s="1">
+      <c r="U195" s="4">
         <v>3</v>
       </c>
       <c r="V195" s="1" t="s">
@@ -21855,7 +21987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>23</v>
       </c>
@@ -21913,7 +22045,7 @@
       <c r="T196" s="1">
         <v>0</v>
       </c>
-      <c r="U196" s="1">
+      <c r="U196" s="4">
         <v>3</v>
       </c>
       <c r="V196" s="1" t="s">
@@ -21962,7 +22094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>45</v>
       </c>
@@ -22020,7 +22152,7 @@
       <c r="T197" s="1">
         <v>0</v>
       </c>
-      <c r="U197" s="1">
+      <c r="U197" s="4">
         <v>5</v>
       </c>
       <c r="V197" s="1" t="s">
@@ -22069,7 +22201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>42</v>
       </c>
@@ -22127,7 +22259,7 @@
       <c r="T198" s="1">
         <v>0</v>
       </c>
-      <c r="U198" s="1">
+      <c r="U198" s="4">
         <v>3</v>
       </c>
       <c r="V198" s="1" t="s">
@@ -22176,7 +22308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>20</v>
       </c>
@@ -22234,7 +22366,7 @@
       <c r="T199" s="1">
         <v>0</v>
       </c>
-      <c r="U199" s="1">
+      <c r="U199" s="4">
         <v>8</v>
       </c>
       <c r="V199" s="1" t="s">
@@ -22283,7 +22415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>53</v>
       </c>
@@ -22341,7 +22473,7 @@
       <c r="T200" s="1">
         <v>0</v>
       </c>
-      <c r="U200" s="1">
+      <c r="U200" s="4">
         <v>1</v>
       </c>
       <c r="V200" s="1" t="s">
@@ -22390,7 +22522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>23</v>
       </c>
@@ -22448,7 +22580,7 @@
       <c r="T201" s="1">
         <v>0</v>
       </c>
-      <c r="U201" s="1">
+      <c r="U201" s="4">
         <v>4</v>
       </c>
       <c r="V201" s="1" t="s">
@@ -22497,7 +22629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>33</v>
       </c>
@@ -22555,7 +22687,7 @@
       <c r="T202" s="1">
         <v>0</v>
       </c>
-      <c r="U202" s="1">
+      <c r="U202" s="4">
         <v>1</v>
       </c>
       <c r="W202" s="1" t="s">
@@ -22601,7 +22733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>24</v>
       </c>
@@ -22659,7 +22791,7 @@
       <c r="T203" s="1">
         <v>0</v>
       </c>
-      <c r="U203" s="1">
+      <c r="U203" s="4">
         <v>8</v>
       </c>
       <c r="V203" s="1" t="s">
@@ -22708,7 +22840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>25</v>
       </c>
@@ -22766,7 +22898,7 @@
       <c r="T204" s="1">
         <v>0</v>
       </c>
-      <c r="U204" s="1">
+      <c r="U204" s="4">
         <v>7</v>
       </c>
       <c r="V204" s="1" t="s">
@@ -22815,7 +22947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>30</v>
       </c>
@@ -22873,7 +23005,7 @@
       <c r="T205" s="1">
         <v>0</v>
       </c>
-      <c r="U205" s="1">
+      <c r="U205" s="4">
         <v>8</v>
       </c>
       <c r="V205" s="1" t="s">
@@ -22922,7 +23054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>28</v>
       </c>
@@ -22980,7 +23112,7 @@
       <c r="T206" s="1">
         <v>0</v>
       </c>
-      <c r="U206" s="1">
+      <c r="U206" s="4">
         <v>7</v>
       </c>
       <c r="V206" s="1" t="s">
@@ -23029,7 +23161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>29</v>
       </c>
@@ -23087,7 +23219,7 @@
       <c r="T207" s="1">
         <v>0</v>
       </c>
-      <c r="U207" s="1">
+      <c r="U207" s="4">
         <v>7</v>
       </c>
       <c r="V207" s="1" t="s">
@@ -23136,7 +23268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>61</v>
       </c>
@@ -23194,7 +23326,7 @@
       <c r="T208" s="1">
         <v>0</v>
       </c>
-      <c r="U208" s="1">
+      <c r="U208" s="4">
         <v>2</v>
       </c>
       <c r="V208" s="1" t="s">
@@ -23243,7 +23375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>26</v>
       </c>
@@ -23301,7 +23433,7 @@
       <c r="T209" s="1">
         <v>0</v>
       </c>
-      <c r="U209" s="1">
+      <c r="U209" s="4">
         <v>12</v>
       </c>
       <c r="V209" s="1" t="s">
@@ -23350,7 +23482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>23</v>
       </c>
@@ -23408,7 +23540,7 @@
       <c r="T210" s="1">
         <v>0</v>
       </c>
-      <c r="U210" s="1">
+      <c r="U210" s="4">
         <v>3</v>
       </c>
       <c r="V210" s="1" t="s">
@@ -23457,7 +23589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>24</v>
       </c>
@@ -23515,7 +23647,7 @@
       <c r="T211" s="1">
         <v>0</v>
       </c>
-      <c r="U211" s="1">
+      <c r="U211" s="4">
         <v>24</v>
       </c>
       <c r="V211" s="1" t="s">
@@ -23564,7 +23696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>26</v>
       </c>
@@ -23622,7 +23754,7 @@
       <c r="T212" s="1">
         <v>0</v>
       </c>
-      <c r="U212" s="1">
+      <c r="U212" s="4">
         <v>16</v>
       </c>
       <c r="W212" s="1">
@@ -23668,7 +23800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>25</v>
       </c>
@@ -23726,7 +23858,7 @@
       <c r="T213" s="1">
         <v>0</v>
       </c>
-      <c r="U213" s="1">
+      <c r="U213" s="4">
         <v>5</v>
       </c>
       <c r="V213" s="1" t="s">
@@ -23775,7 +23907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>31</v>
       </c>
@@ -23833,7 +23965,7 @@
       <c r="T214" s="1">
         <v>0</v>
       </c>
-      <c r="U214" s="1">
+      <c r="U214" s="4">
         <v>5</v>
       </c>
       <c r="V214" s="1" t="s">
@@ -23882,7 +24014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>29</v>
       </c>
@@ -23940,7 +24072,7 @@
       <c r="T215" s="1">
         <v>0</v>
       </c>
-      <c r="U215" s="1">
+      <c r="U215" s="4">
         <v>8</v>
       </c>
       <c r="V215" s="1" t="s">
@@ -23989,7 +24121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>24</v>
       </c>
@@ -24047,7 +24179,7 @@
       <c r="T216" s="1">
         <v>0</v>
       </c>
-      <c r="U216" s="1">
+      <c r="U216" s="4">
         <v>8</v>
       </c>
       <c r="V216" s="1" t="s">
@@ -24096,7 +24228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>29</v>
       </c>
@@ -24154,7 +24286,7 @@
       <c r="T217" s="1">
         <v>0</v>
       </c>
-      <c r="U217" s="1">
+      <c r="U217" s="4">
         <v>3</v>
       </c>
       <c r="V217" s="1" t="s">
@@ -24203,7 +24335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>21</v>
       </c>
@@ -24261,7 +24393,7 @@
       <c r="T218" s="1">
         <v>0</v>
       </c>
-      <c r="U218" s="1">
+      <c r="U218" s="4">
         <v>24</v>
       </c>
       <c r="V218" s="1" t="s">
@@ -24310,7 +24442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>23</v>
       </c>
@@ -24368,7 +24500,7 @@
       <c r="T219" s="1">
         <v>0</v>
       </c>
-      <c r="U219" s="1">
+      <c r="U219" s="4">
         <v>5</v>
       </c>
       <c r="V219" s="1" t="s">
@@ -24417,7 +24549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>27</v>
       </c>
@@ -24475,7 +24607,7 @@
       <c r="T220" s="1">
         <v>0</v>
       </c>
-      <c r="U220" s="1">
+      <c r="U220" s="4">
         <v>7</v>
       </c>
       <c r="V220" s="1" t="s">
@@ -24524,7 +24656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>24</v>
       </c>
@@ -24582,7 +24714,7 @@
       <c r="T221" s="1">
         <v>0</v>
       </c>
-      <c r="U221" s="1">
+      <c r="U221" s="4">
         <v>9</v>
       </c>
       <c r="V221" s="1" t="s">
@@ -24631,7 +24763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>35</v>
       </c>
@@ -24689,7 +24821,7 @@
       <c r="T222" s="1">
         <v>0</v>
       </c>
-      <c r="U222" s="1">
+      <c r="U222" s="4">
         <v>4</v>
       </c>
       <c r="V222" s="1" t="s">
@@ -24738,7 +24870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>25</v>
       </c>
@@ -24796,7 +24928,7 @@
       <c r="T223" s="1">
         <v>0</v>
       </c>
-      <c r="U223" s="1">
+      <c r="U223" s="4">
         <v>10</v>
       </c>
       <c r="V223" s="1" t="s">
@@ -24845,7 +24977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>28</v>
       </c>
@@ -24903,7 +25035,7 @@
       <c r="T224" s="1">
         <v>0</v>
       </c>
-      <c r="U224" s="1">
+      <c r="U224" s="4">
         <v>8</v>
       </c>
       <c r="V224" s="1" t="s">
@@ -24952,7 +25084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>32</v>
       </c>
@@ -25010,7 +25142,7 @@
       <c r="T225" s="1">
         <v>0</v>
       </c>
-      <c r="U225" s="1">
+      <c r="U225" s="4">
         <v>8</v>
       </c>
       <c r="W225" s="1">
@@ -25056,7 +25188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>34</v>
       </c>
@@ -25114,7 +25246,7 @@
       <c r="T226" s="1">
         <v>0</v>
       </c>
-      <c r="U226" s="1">
+      <c r="U226" s="4">
         <v>3</v>
       </c>
       <c r="V226" s="1" t="s">
@@ -25163,7 +25295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>22</v>
       </c>
@@ -25221,7 +25353,7 @@
       <c r="T227" s="1">
         <v>0</v>
       </c>
-      <c r="U227" s="1">
+      <c r="U227" s="4">
         <v>2</v>
       </c>
       <c r="V227" s="1" t="s">
@@ -25270,7 +25402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>24</v>
       </c>
@@ -25328,7 +25460,7 @@
       <c r="T228" s="1">
         <v>0</v>
       </c>
-      <c r="U228" s="1">
+      <c r="U228" s="4">
         <v>6</v>
       </c>
       <c r="V228" s="1" t="s">
@@ -25377,7 +25509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>30</v>
       </c>
@@ -25435,7 +25567,7 @@
       <c r="T229" s="1">
         <v>0</v>
       </c>
-      <c r="U229" s="1">
+      <c r="U229" s="4">
         <v>13</v>
       </c>
       <c r="V229" s="1" t="s">
@@ -25484,7 +25616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>38</v>
       </c>
@@ -25542,7 +25674,7 @@
       <c r="T230" s="1">
         <v>0</v>
       </c>
-      <c r="U230" s="1">
+      <c r="U230" s="4">
         <v>6</v>
       </c>
       <c r="V230" s="1" t="s">
@@ -25591,7 +25723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>29</v>
       </c>
@@ -25649,7 +25781,7 @@
       <c r="T231" s="1">
         <v>0</v>
       </c>
-      <c r="U231" s="1">
+      <c r="U231" s="4">
         <v>5</v>
       </c>
       <c r="V231" s="1" t="s">
@@ -25698,7 +25830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>38</v>
       </c>
@@ -25756,6 +25888,9 @@
       <c r="T232" s="1">
         <v>0</v>
       </c>
+      <c r="U232" s="4">
+        <v>7</v>
+      </c>
       <c r="V232" s="1" t="s">
         <v>195</v>
       </c>
@@ -25802,7 +25937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>35</v>
       </c>
@@ -25860,7 +25995,7 @@
       <c r="T233" s="1">
         <v>0</v>
       </c>
-      <c r="U233" s="1">
+      <c r="U233" s="4">
         <v>5</v>
       </c>
       <c r="V233" s="1" t="s">
@@ -25909,7 +26044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>32</v>
       </c>
@@ -25967,7 +26102,7 @@
       <c r="T234" s="1">
         <v>0</v>
       </c>
-      <c r="U234" s="1">
+      <c r="U234" s="4">
         <v>7</v>
       </c>
       <c r="V234" s="1" t="s">
@@ -26016,7 +26151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>25</v>
       </c>
@@ -26074,7 +26209,7 @@
       <c r="T235" s="1">
         <v>0</v>
       </c>
-      <c r="U235" s="1">
+      <c r="U235" s="4">
         <v>7</v>
       </c>
       <c r="V235" s="1" t="s">
@@ -26123,7 +26258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>26</v>
       </c>
@@ -26181,7 +26316,7 @@
       <c r="T236" s="1">
         <v>0</v>
       </c>
-      <c r="U236" s="1">
+      <c r="U236" s="4">
         <v>8</v>
       </c>
       <c r="V236" s="1" t="s">
@@ -26230,7 +26365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>24</v>
       </c>
@@ -26288,7 +26423,7 @@
       <c r="T237" s="1">
         <v>0</v>
       </c>
-      <c r="U237" s="1">
+      <c r="U237" s="4">
         <v>7</v>
       </c>
       <c r="V237" s="1" t="s">
@@ -26337,7 +26472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>26</v>
       </c>
@@ -26395,7 +26530,7 @@
       <c r="T238" s="1">
         <v>0</v>
       </c>
-      <c r="U238" s="1">
+      <c r="U238" s="4">
         <v>6</v>
       </c>
       <c r="V238" s="1" t="s">
@@ -26444,7 +26579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>26</v>
       </c>
@@ -26502,7 +26637,7 @@
       <c r="T239" s="1">
         <v>0</v>
       </c>
-      <c r="U239" s="1">
+      <c r="U239" s="4">
         <v>7</v>
       </c>
       <c r="V239" s="1" t="s">
@@ -26551,7 +26686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>27</v>
       </c>
@@ -26609,7 +26744,7 @@
       <c r="T240" s="1">
         <v>0</v>
       </c>
-      <c r="U240" s="1">
+      <c r="U240" s="4">
         <v>10</v>
       </c>
       <c r="V240" s="1" t="s">
@@ -26658,7 +26793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>28</v>
       </c>
@@ -26716,7 +26851,7 @@
       <c r="T241" s="1">
         <v>0</v>
       </c>
-      <c r="U241" s="1">
+      <c r="U241" s="4">
         <v>9</v>
       </c>
       <c r="V241" s="1" t="s">
@@ -26765,7 +26900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>30</v>
       </c>
@@ -26824,7 +26959,7 @@
       <c r="T242" s="1">
         <v>0</v>
       </c>
-      <c r="U242" s="1">
+      <c r="U242" s="4">
         <v>11</v>
       </c>
       <c r="V242" s="1" t="s">
@@ -26873,7 +27008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B243" s="1" t="s">
         <v>40</v>
       </c>
@@ -26928,7 +27063,7 @@
       <c r="T243" s="1">
         <v>0</v>
       </c>
-      <c r="U243" s="1">
+      <c r="U243" s="4">
         <v>3</v>
       </c>
       <c r="V243" s="1" t="s">
@@ -26977,7 +27112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>35</v>
       </c>
@@ -27035,7 +27170,7 @@
       <c r="T244" s="1">
         <v>0</v>
       </c>
-      <c r="U244" s="1">
+      <c r="U244" s="4">
         <v>15</v>
       </c>
       <c r="V244" s="1" t="s">
@@ -27084,7 +27219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>35</v>
       </c>
@@ -27142,7 +27277,7 @@
       <c r="T245" s="1">
         <v>0</v>
       </c>
-      <c r="U245" s="1">
+      <c r="U245" s="4">
         <v>6</v>
       </c>
       <c r="V245" s="1" t="s">
@@ -27191,7 +27326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>27</v>
       </c>
@@ -27249,7 +27384,7 @@
       <c r="T246" s="1">
         <v>0</v>
       </c>
-      <c r="U246" s="1">
+      <c r="U246" s="4">
         <v>5</v>
       </c>
       <c r="V246" s="1" t="s">
@@ -27298,7 +27433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>36</v>
       </c>
@@ -27356,6 +27491,9 @@
       <c r="T247" s="1">
         <v>1</v>
       </c>
+      <c r="U247" s="4">
+        <v>9</v>
+      </c>
       <c r="V247" s="1" t="s">
         <v>51</v>
       </c>
@@ -27402,7 +27540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>44</v>
       </c>
@@ -27460,6 +27598,9 @@
       <c r="T248" s="1">
         <v>1</v>
       </c>
+      <c r="U248" s="4">
+        <v>3</v>
+      </c>
       <c r="V248" s="1" t="s">
         <v>51</v>
       </c>
@@ -27506,7 +27647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>23</v>
       </c>
@@ -27564,7 +27705,7 @@
       <c r="T249" s="1">
         <v>0</v>
       </c>
-      <c r="U249" s="1">
+      <c r="U249" s="4">
         <v>1</v>
       </c>
       <c r="V249" s="1" t="s">
@@ -27613,7 +27754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>35</v>
       </c>
@@ -27671,7 +27812,7 @@
       <c r="T250" s="1">
         <v>0</v>
       </c>
-      <c r="U250" s="1">
+      <c r="U250" s="4">
         <v>4</v>
       </c>
       <c r="V250" s="1" t="s">
@@ -27720,7 +27861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>54</v>
       </c>
@@ -27781,7 +27922,7 @@
       <c r="T251" s="1">
         <v>0</v>
       </c>
-      <c r="U251" s="1">
+      <c r="U251" s="4">
         <v>3</v>
       </c>
       <c r="V251" s="1" t="s">
@@ -27830,7 +27971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>47</v>
       </c>
@@ -27888,7 +28029,7 @@
       <c r="T252" s="1">
         <v>0</v>
       </c>
-      <c r="U252" s="1">
+      <c r="U252" s="4">
         <v>1</v>
       </c>
       <c r="V252" s="1" t="s">
@@ -27937,7 +28078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>28</v>
       </c>
@@ -27995,7 +28136,7 @@
       <c r="T253" s="1">
         <v>1</v>
       </c>
-      <c r="U253" s="1">
+      <c r="U253" s="4">
         <v>5</v>
       </c>
       <c r="V253" s="1" t="s">
@@ -28044,7 +28185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>22</v>
       </c>
@@ -28102,7 +28243,7 @@
       <c r="T254" s="1">
         <v>0</v>
       </c>
-      <c r="U254" s="1">
+      <c r="U254" s="4">
         <v>4</v>
       </c>
       <c r="V254" s="1" t="s">
@@ -28151,7 +28292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>21</v>
       </c>
@@ -28209,7 +28350,7 @@
       <c r="T255" s="1">
         <v>0</v>
       </c>
-      <c r="U255" s="1">
+      <c r="U255" s="4">
         <v>4</v>
       </c>
       <c r="V255" s="1" t="s">
@@ -28258,7 +28399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>25</v>
       </c>
@@ -28316,7 +28457,7 @@
       <c r="T256" s="1">
         <v>0</v>
       </c>
-      <c r="U256" s="1">
+      <c r="U256" s="4">
         <v>24</v>
       </c>
       <c r="V256" s="1" t="s">
@@ -28365,7 +28506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>29</v>
       </c>
@@ -28423,7 +28564,7 @@
       <c r="T257" s="1">
         <v>1</v>
       </c>
-      <c r="U257" s="1">
+      <c r="U257" s="4">
         <v>17</v>
       </c>
       <c r="V257" s="1" t="s">
@@ -28472,7 +28613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B258" s="1" t="s">
         <v>40</v>
       </c>
@@ -28527,7 +28668,7 @@
       <c r="T258" s="1">
         <v>1</v>
       </c>
-      <c r="U258" s="1">
+      <c r="U258" s="4">
         <v>24</v>
       </c>
       <c r="V258" s="1" t="s">
@@ -28576,7 +28717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>28</v>
       </c>
@@ -28634,7 +28775,7 @@
       <c r="T259" s="1">
         <v>1</v>
       </c>
-      <c r="U259" s="1">
+      <c r="U259" s="4">
         <v>7</v>
       </c>
       <c r="V259" s="1" t="s">
@@ -28683,7 +28824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>30</v>
       </c>
@@ -28741,7 +28882,7 @@
       <c r="T260" s="1">
         <v>1</v>
       </c>
-      <c r="U260" s="1">
+      <c r="U260" s="4">
         <v>8</v>
       </c>
       <c r="V260" s="1" t="s">
@@ -28790,7 +28931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>26</v>
       </c>
@@ -28848,7 +28989,7 @@
       <c r="T261" s="1">
         <v>0</v>
       </c>
-      <c r="U261" s="1">
+      <c r="U261" s="4">
         <v>8</v>
       </c>
       <c r="V261" s="1" t="s">
@@ -28897,7 +29038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>32</v>
       </c>
@@ -28955,7 +29096,7 @@
       <c r="T262" s="1">
         <v>0</v>
       </c>
-      <c r="U262" s="1">
+      <c r="U262" s="4">
         <v>8</v>
       </c>
       <c r="V262" s="1" t="s">
@@ -29004,7 +29145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>2</v>
       </c>
@@ -29062,7 +29203,7 @@
       <c r="T263" s="1">
         <v>0</v>
       </c>
-      <c r="U263" s="1">
+      <c r="U263" s="4">
         <v>8</v>
       </c>
       <c r="V263" s="1" t="s">
@@ -29111,7 +29252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>67</v>
       </c>
@@ -29169,7 +29310,7 @@
       <c r="T264" s="1">
         <v>0</v>
       </c>
-      <c r="U264" s="1">
+      <c r="U264" s="4">
         <v>2</v>
       </c>
       <c r="V264" s="1" t="s">
@@ -29218,7 +29359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>29</v>
       </c>
@@ -29276,7 +29417,7 @@
       <c r="T265" s="1">
         <v>0</v>
       </c>
-      <c r="U265" s="1">
+      <c r="U265" s="4">
         <v>10</v>
       </c>
       <c r="V265" s="1" t="s">
@@ -29325,7 +29466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B266" s="1" t="s">
         <v>36</v>
       </c>
@@ -29380,7 +29521,7 @@
       <c r="T266" s="1">
         <v>0</v>
       </c>
-      <c r="U266" s="1">
+      <c r="U266" s="4">
         <v>10</v>
       </c>
       <c r="V266" s="1" t="s">
@@ -29429,7 +29570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B267" s="1" t="s">
         <v>40</v>
       </c>
@@ -29485,7 +29626,7 @@
       <c r="T267" s="1">
         <v>0</v>
       </c>
-      <c r="U267" s="1">
+      <c r="U267" s="4">
         <v>20</v>
       </c>
       <c r="V267" s="1" t="s">
@@ -29534,7 +29675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>21</v>
       </c>
@@ -29592,7 +29733,7 @@
       <c r="T268" s="1">
         <v>0</v>
       </c>
-      <c r="U268" s="1">
+      <c r="U268" s="4">
         <v>12</v>
       </c>
       <c r="V268" s="1" t="s">
@@ -29641,7 +29782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>59</v>
       </c>
@@ -29699,7 +29840,7 @@
       <c r="T269" s="1">
         <v>0</v>
       </c>
-      <c r="U269" s="1">
+      <c r="U269" s="4">
         <v>12</v>
       </c>
       <c r="V269" s="1" t="s">
@@ -29748,7 +29889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>50</v>
       </c>
@@ -29806,7 +29947,7 @@
       <c r="T270" s="1">
         <v>0</v>
       </c>
-      <c r="U270" s="1">
+      <c r="U270" s="4">
         <v>12</v>
       </c>
       <c r="V270" s="1" t="s">
@@ -29855,7 +29996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>42</v>
       </c>
@@ -29913,7 +30054,7 @@
       <c r="T271" s="1">
         <v>0</v>
       </c>
-      <c r="U271" s="1">
+      <c r="U271" s="4">
         <v>10</v>
       </c>
       <c r="V271" s="1" t="s">
@@ -29962,7 +30103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>38</v>
       </c>
@@ -30020,7 +30161,7 @@
       <c r="T272" s="1">
         <v>0</v>
       </c>
-      <c r="U272" s="1">
+      <c r="U272" s="4">
         <v>10</v>
       </c>
       <c r="V272" s="1" t="s">
@@ -30069,7 +30210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>52</v>
       </c>
@@ -30127,7 +30268,7 @@
       <c r="T273" s="1">
         <v>0</v>
       </c>
-      <c r="U273" s="1">
+      <c r="U273" s="4">
         <v>24</v>
       </c>
       <c r="V273" s="1" t="s">
@@ -30176,7 +30317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>52</v>
       </c>
@@ -30234,7 +30375,7 @@
       <c r="T274" s="1">
         <v>0</v>
       </c>
-      <c r="U274" s="1">
+      <c r="U274" s="4">
         <v>3</v>
       </c>
       <c r="V274" s="1" t="s">
@@ -30283,7 +30424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>52</v>
       </c>
@@ -30341,6 +30482,9 @@
       <c r="T275" s="1">
         <v>0</v>
       </c>
+      <c r="U275" s="4">
+        <v>10</v>
+      </c>
       <c r="V275" s="1" t="s">
         <v>212</v>
       </c>
@@ -30387,7 +30531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>60</v>
       </c>
@@ -30448,7 +30592,7 @@
       <c r="T276" s="1">
         <v>0</v>
       </c>
-      <c r="U276" s="1">
+      <c r="U276" s="4">
         <v>3</v>
       </c>
       <c r="V276" s="1" t="s">
@@ -30497,7 +30641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>57</v>
       </c>
@@ -30555,7 +30699,7 @@
       <c r="T277" s="1">
         <v>0</v>
       </c>
-      <c r="U277" s="1">
+      <c r="U277" s="4">
         <v>10</v>
       </c>
       <c r="V277" s="1" t="s">
@@ -30604,7 +30748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>36</v>
       </c>
@@ -30662,7 +30806,7 @@
       <c r="T278" s="1">
         <v>0</v>
       </c>
-      <c r="U278" s="1">
+      <c r="U278" s="4">
         <v>4</v>
       </c>
       <c r="V278" s="1" t="s">
@@ -30711,7 +30855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B279" s="1" t="s">
         <v>36</v>
       </c>
@@ -30769,7 +30913,7 @@
       <c r="T279" s="1">
         <v>0</v>
       </c>
-      <c r="U279" s="1">
+      <c r="U279" s="4">
         <v>7</v>
       </c>
       <c r="W279" s="1">
@@ -30815,7 +30959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>36</v>
       </c>
@@ -30874,7 +31018,7 @@
       <c r="T280" s="1">
         <v>0</v>
       </c>
-      <c r="U280" s="1">
+      <c r="U280" s="4">
         <v>2</v>
       </c>
       <c r="V280" s="1" t="s">
@@ -30923,7 +31067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>57</v>
       </c>
@@ -30981,6 +31125,9 @@
       <c r="T281" s="1">
         <v>0</v>
       </c>
+      <c r="U281" s="4">
+        <v>9</v>
+      </c>
       <c r="W281" s="1">
         <v>1</v>
       </c>
@@ -31024,7 +31171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>37</v>
       </c>
@@ -31082,6 +31229,9 @@
       <c r="T282" s="1">
         <v>0</v>
       </c>
+      <c r="U282" s="4">
+        <v>11</v>
+      </c>
       <c r="V282" s="1" t="s">
         <v>140</v>
       </c>
@@ -31128,7 +31278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>43</v>
       </c>
@@ -31186,6 +31336,9 @@
       <c r="T283" s="1">
         <v>0</v>
       </c>
+      <c r="U283" s="4">
+        <v>4</v>
+      </c>
       <c r="V283" s="1" t="s">
         <v>50</v>
       </c>
@@ -31232,7 +31385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>34</v>
       </c>
@@ -31290,6 +31443,9 @@
       <c r="T284" s="1">
         <v>0</v>
       </c>
+      <c r="U284" s="4">
+        <v>10</v>
+      </c>
       <c r="V284" s="1" t="s">
         <v>50</v>
       </c>
@@ -31336,7 +31492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>57</v>
       </c>
@@ -31394,7 +31550,7 @@
       <c r="T285" s="1">
         <v>0</v>
       </c>
-      <c r="U285" s="1">
+      <c r="U285" s="4">
         <v>3</v>
       </c>
       <c r="W285" s="3">
@@ -31440,7 +31596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>29</v>
       </c>
@@ -31501,7 +31657,7 @@
       <c r="T286" s="1">
         <v>0</v>
       </c>
-      <c r="U286" s="1">
+      <c r="U286" s="4">
         <v>2</v>
       </c>
       <c r="W286" s="3">
@@ -31547,7 +31703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>42</v>
       </c>
@@ -31605,7 +31761,7 @@
       <c r="T287" s="1">
         <v>0</v>
       </c>
-      <c r="U287" s="1">
+      <c r="U287" s="4">
         <v>20</v>
       </c>
       <c r="V287" s="1" t="s">
@@ -31654,7 +31810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:36" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>51</v>
       </c>
@@ -31712,7 +31868,7 @@
       <c r="T288" s="1">
         <v>0</v>
       </c>
-      <c r="U288" s="1">
+      <c r="U288" s="4">
         <v>6</v>
       </c>
       <c r="V288" s="1" t="s">
@@ -31761,7 +31917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:37" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>57</v>
       </c>
@@ -31819,6 +31975,9 @@
       <c r="T289" s="1">
         <v>0</v>
       </c>
+      <c r="U289" s="4">
+        <v>8</v>
+      </c>
       <c r="V289" s="1" t="s">
         <v>219</v>
       </c>
@@ -31865,7 +32024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:37" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>55</v>
       </c>
@@ -31923,6 +32082,9 @@
       <c r="T290" s="1">
         <v>0</v>
       </c>
+      <c r="U290" s="4">
+        <v>2</v>
+      </c>
       <c r="V290" s="1" t="s">
         <v>220</v>
       </c>
@@ -31969,7 +32131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:37" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>26</v>
       </c>
@@ -32027,7 +32189,7 @@
       <c r="T291" s="1">
         <v>0</v>
       </c>
-      <c r="U291" s="1">
+      <c r="U291" s="4">
         <v>8</v>
       </c>
       <c r="V291" s="1" t="s">
@@ -32076,7 +32238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:37" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>37</v>
       </c>
@@ -32134,7 +32296,7 @@
       <c r="T292" s="1">
         <v>0</v>
       </c>
-      <c r="U292" s="1">
+      <c r="U292" s="4">
         <v>2</v>
       </c>
       <c r="V292" s="1" t="s">
@@ -32183,7 +32345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:37" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B293" s="1" t="s">
         <v>40</v>
       </c>
@@ -32238,6 +32400,9 @@
       <c r="T293" s="1">
         <v>0</v>
       </c>
+      <c r="U293" s="4">
+        <v>14</v>
+      </c>
       <c r="V293" s="1" t="s">
         <v>221</v>
       </c>
@@ -32284,7 +32449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:37" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B294" s="1" t="s">
         <v>36</v>
       </c>
@@ -32339,7 +32504,7 @@
       <c r="T294" s="1">
         <v>0</v>
       </c>
-      <c r="U294" s="1">
+      <c r="U294" s="4">
         <v>12</v>
       </c>
       <c r="V294" s="1" t="s">
@@ -32388,7 +32553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:37" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B295" s="1" t="s">
         <v>36</v>
       </c>
@@ -32443,6 +32608,9 @@
       <c r="T295" s="1">
         <v>1</v>
       </c>
+      <c r="U295" s="4">
+        <v>16</v>
+      </c>
       <c r="W295" s="1">
         <v>1</v>
       </c>
@@ -32486,7 +32654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:37" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B296" s="1" t="s">
         <v>36</v>
       </c>
@@ -32541,6 +32709,9 @@
       <c r="T296" s="1">
         <v>0</v>
       </c>
+      <c r="U296" s="4">
+        <v>11</v>
+      </c>
       <c r="W296" s="1">
         <v>1</v>
       </c>
@@ -32584,7 +32755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:37" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B297" s="1" t="s">
         <v>36</v>
       </c>
@@ -32639,6 +32810,9 @@
       <c r="T297" s="1">
         <v>0</v>
       </c>
+      <c r="U297" s="4">
+        <v>12</v>
+      </c>
       <c r="W297" s="1">
         <v>1</v>
       </c>
@@ -32682,7 +32856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:37" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>31</v>
       </c>
@@ -32740,7 +32914,7 @@
       <c r="T298" s="1">
         <v>0</v>
       </c>
-      <c r="U298" s="1">
+      <c r="U298" s="4">
         <v>2</v>
       </c>
       <c r="V298" s="1" t="s">
@@ -32789,7 +32963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:37" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B299" s="1" t="s">
         <v>36</v>
       </c>
@@ -32844,6 +33018,9 @@
       <c r="T299" s="1">
         <v>0</v>
       </c>
+      <c r="U299" s="4">
+        <v>2</v>
+      </c>
       <c r="W299" s="3">
         <v>0</v>
       </c>
@@ -32887,7 +33064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:37" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1"/>
       <c r="B300" s="1" t="s">
         <v>40</v>
@@ -32943,6 +33120,9 @@
       <c r="T300" s="1">
         <v>0</v>
       </c>
+      <c r="U300" s="4">
+        <v>4</v>
+      </c>
       <c r="W300" s="1">
         <v>1</v>
       </c>
@@ -32986,7 +33166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:37" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1"/>
       <c r="B301" s="1" t="s">
         <v>40</v>
@@ -33042,6 +33222,9 @@
       <c r="T301" s="1">
         <v>0</v>
       </c>
+      <c r="U301" s="4">
+        <v>6</v>
+      </c>
       <c r="W301" s="1">
         <v>1</v>
       </c>
@@ -33085,7 +33268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:37" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>53</v>
       </c>
@@ -33143,6 +33326,9 @@
       <c r="T302" s="1">
         <v>0</v>
       </c>
+      <c r="U302" s="4">
+        <v>1</v>
+      </c>
       <c r="W302" s="3">
         <v>0</v>
       </c>
@@ -33186,7 +33372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:37" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:37" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>26</v>
       </c>
@@ -33243,6 +33429,9 @@
       </c>
       <c r="T303" s="1">
         <v>0</v>
+      </c>
+      <c r="U303" s="4">
+        <v>9</v>
       </c>
       <c r="W303" s="3">
         <v>0</v>
